--- a/public/salary_table_template/salary_table_shi_on_duty.xlsx
+++ b/public/salary_table_template/salary_table_shi_on_duty.xlsx
@@ -704,8 +704,26 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,24 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,7 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="AP1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1172,7 +1172,7 @@
     <col min="46" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" hidden="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1301,102 +1301,102 @@
       </c>
     </row>
     <row r="3" spans="1:45" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="13" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="13" t="s">
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+      <c r="AO3" s="17"/>
+      <c r="AP3" s="17"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AS3" s="14" t="s">
+      <c r="AS3" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="28" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1442,7 +1442,7 @@
       <c r="AB4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="13"/>
+      <c r="AC4" s="19"/>
       <c r="AD4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1485,8 +1485,8 @@
       <c r="AQ4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="14"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="20"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
@@ -2157,6 +2157,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:AB3"/>
+    <mergeCell ref="AC3:AC4"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AD3:AQ3"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -2169,12 +2175,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:AB3"/>
-    <mergeCell ref="AC3:AC4"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AD3:AQ3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
